--- a/data/trans_orig/Q70-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q70-Edad-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>0.3911589029121663</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>1.882802038965186</v>
+        <v>1.882802038965185</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>1.098810993808097</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6108584590452669</v>
+        <v>0.6271267498498497</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4989903259172792</v>
+        <v>0.4360389494821503</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4915827907178479</v>
+        <v>0.4959360479743216</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3195694278829716</v>
+        <v>0.307196231049908</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4484774724659654</v>
+        <v>0.4491141171642327</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06608937131756942</v>
+        <v>0.05555318196764895</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1661945544986219</v>
+        <v>0.1475824134336485</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9681232979935809</v>
+        <v>1.011152291026857</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.62225999008892</v>
+        <v>0.6449721215930366</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3430463198387588</v>
+        <v>0.3064673352402268</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4299017906051845</v>
+        <v>0.4040322460524605</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.8296816919878648</v>
+        <v>0.7589246762961132</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.284241993724406</v>
+        <v>3.89565904338958</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.764899758910336</v>
+        <v>6.258124253962965</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.055767361917272</v>
+        <v>2.788506083108212</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.120517101493589</v>
+        <v>3.325880264154481</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.213347975346896</v>
+        <v>2.746200512184333</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3866967808983195</v>
+        <v>0.3707247559048269</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8970230848081434</v>
+        <v>0.8787710674913856</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.845606052219674</v>
+        <v>3.907728022820755</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.205516230780458</v>
+        <v>2.315276822366174</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3.097913778640358</v>
+        <v>3.196210909651362</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>1.431036871686106</v>
+        <v>1.4049978498198</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>2.753821439275491</v>
+        <v>2.656670032271955</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>1.417323422846066</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>5.347974450829658</v>
+        <v>5.347974450829659</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>1.028078906346186</v>
@@ -829,7 +829,7 @@
         <v>1.394440775525003</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>5.345944539066379</v>
+        <v>5.345944539066378</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5926520813645632</v>
+        <v>0.6051229514075496</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4257847934239488</v>
+        <v>0.4264749790132084</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8291040693675611</v>
+        <v>0.8663793229661065</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.451652803228601</v>
+        <v>2.284447268043362</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6913746930088738</v>
+        <v>0.6897472096825465</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.476531276407154</v>
+        <v>0.4661386165278081</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6816939881164582</v>
+        <v>0.7379710397530407</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>3.489831418669049</v>
+        <v>3.53937662633903</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7677575074873938</v>
+        <v>0.7530847387321806</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.542013234659583</v>
+        <v>0.5593722039112295</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.9170078408070691</v>
+        <v>0.9051279047370427</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>3.412948454044613</v>
+        <v>3.475828231080968</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.21224974429032</v>
+        <v>2.310788263601764</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.786687687334734</v>
+        <v>3.07907990305261</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.611300682923856</v>
+        <v>2.627391527069702</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12.80756229891452</v>
+        <v>13.40286049895001</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1.639203014467896</v>
+        <v>1.608179679744509</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>1.132244558790133</v>
+        <v>1.143605497619579</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.869363251713808</v>
+        <v>2.778690083259096</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>8.883097040811062</v>
+        <v>9.215001379373277</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>1.785851972226187</v>
+        <v>1.745828467655587</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1.791516607687698</v>
+        <v>2.091235430947808</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>2.16251451443864</v>
+        <v>2.237598943986404</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>10.09214437836201</v>
+        <v>9.719097900383487</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>2.114408867768447</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>6.983530811271689</v>
+        <v>6.983530811271688</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8013837294196225</v>
+        <v>0.8101693068770149</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7070347152128267</v>
+        <v>0.7139943045066487</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8306108481374723</v>
+        <v>0.8667825050714189</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.258075434258553</v>
+        <v>3.315855623320019</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.026746838318385</v>
+        <v>1.076244625939252</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6052419046295751</v>
+        <v>0.6166258842466843</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.562663821348187</v>
+        <v>1.521900830332894</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>6.801657406657265</v>
+        <v>7.079138104073913</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.018054062352612</v>
+        <v>1.036760602334434</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.8098710199567116</v>
+        <v>0.8141405630348003</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1.321930031723501</v>
+        <v>1.252202863759989</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>5.210324535455324</v>
+        <v>5.208241231105142</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.635291052896917</v>
+        <v>1.701314457201359</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.735563398488273</v>
+        <v>1.673905396844057</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.965924701903602</v>
+        <v>2.980855319737945</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.903624722204654</v>
+        <v>7.965738078961563</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.851040903338196</v>
+        <v>4.576966188325952</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.688743496706104</v>
+        <v>7.383137903265395</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.593851557198473</v>
+        <v>5.450403984157398</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>14.11753433826893</v>
+        <v>15.25725905178991</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.47636669901424</v>
+        <v>2.484693756013341</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3.564427585211116</v>
+        <v>3.577743651756725</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>3.265209509228858</v>
+        <v>3.347804042418006</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>9.112648239056432</v>
+        <v>9.215622082856797</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>3.202721693155158</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8.095861494301108</v>
+        <v>8.095861494301104</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>4.261932123455429</v>
@@ -1101,7 +1101,7 @@
         <v>2.970176987364986</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>7.814388324981384</v>
+        <v>7.814388324981385</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.816570067891089</v>
+        <v>0.759788636671537</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8235071633554091</v>
+        <v>0.9146364127273175</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.641890214011793</v>
+        <v>1.4518168209388</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.413041319222089</v>
+        <v>5.360979575979891</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.499724576484414</v>
+        <v>1.400386423138941</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6253582971340964</v>
+        <v>0.6253213996468647</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.038187408965176</v>
+        <v>1.045597484373157</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>5.591562455057104</v>
+        <v>5.70488881216487</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>1.27938639351314</v>
+        <v>1.258846975085879</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1.082927870444777</v>
+        <v>1.108809812654183</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1.627965076365948</v>
+        <v>1.540991604524492</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>6.062661318185097</v>
+        <v>6.186410022282705</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.468188078419966</v>
+        <v>3.214870603353426</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.247394015100468</v>
+        <v>4.18675910655291</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.254850439734085</v>
+        <v>7.379632177450686</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12.73540798176843</v>
+        <v>12.37506245971821</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>13.72643467600468</v>
+        <v>13.14924202097967</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>9.082905681153878</v>
+        <v>8.049853338341171</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>8.970089354537148</v>
+        <v>8.533758942957633</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>10.17000525012208</v>
+        <v>10.46365820646213</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>4.733097836757132</v>
+        <v>4.534358493135138</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>4.191690166990035</v>
+        <v>4.532226127287595</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5.960081756420786</v>
+        <v>6.094592401829578</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>10.44406500604626</v>
+        <v>10.49515925777527</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>3.512266822176984</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8.80299854049149</v>
+        <v>8.802998540491489</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.92750529554539</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.143092964631664</v>
+        <v>1.006853089945803</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.834814889208877</v>
+        <v>0.6487139080485669</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.16117245721822</v>
+        <v>1.049159505583998</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.019314826970913</v>
+        <v>5.758406586491182</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3832895200004032</v>
+        <v>0.4149430678354676</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.977111093290535</v>
+        <v>2.943667769317168</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4535360055527238</v>
+        <v>0.4706078640581088</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>10.3770392238908</v>
+        <v>10.13952401494964</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.067088896353863</v>
+        <v>1.141534844500081</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2.428412360313738</v>
+        <v>2.308255539442766</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1.033109071197869</v>
+        <v>1.021712371638676</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>8.690756251327963</v>
+        <v>8.543008818493833</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.40106747543152</v>
+        <v>11.44830102773304</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.63938842539058</v>
+        <v>15.10412553675425</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.27581265495363</v>
+        <v>10.68124056415922</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.6762159758732</v>
+        <v>13.09918303671301</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.736746992321896</v>
+        <v>1.801860967299992</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>16.82911320966911</v>
+        <v>17.75850157310131</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.162267553557698</v>
+        <v>2.330545461057403</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>20.83446494640977</v>
+        <v>22.12962226780362</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.918430490219525</v>
+        <v>7.555281938867058</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12.73010411469875</v>
+        <v>11.31530757141831</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6.988443763171437</v>
+        <v>6.963036503213641</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>14.75612514198249</v>
+        <v>14.95784745162245</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>2.064357554482883</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>8.407841448757594</v>
+        <v>8.407841448757596</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>1.586834695897134</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.039182866367314</v>
+        <v>1.073495766947301</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.089757011220464</v>
+        <v>1.130270591229313</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.460774079017817</v>
+        <v>1.461643016162406</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4.918645499930649</v>
+        <v>4.959869226991946</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.264242437486997</v>
+        <v>1.253148006605261</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1.169724512886586</v>
+        <v>1.193183372664935</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>1.325910916411905</v>
+        <v>1.376142566030175</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>6.992740688088827</v>
+        <v>7.078467323191651</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>1.233963692765018</v>
+        <v>1.251356146672426</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1.301034916828829</v>
+        <v>1.287654217428287</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1.540010755899584</v>
+        <v>1.580503650728972</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>6.207476361749204</v>
+        <v>6.17768557410951</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.060191545927548</v>
+        <v>2.07446067338514</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.838412754659926</v>
+        <v>2.715960669430085</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.199624041775551</v>
+        <v>3.329863354473749</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8.482202144191598</v>
+        <v>8.30618853984171</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>3.578348190448347</v>
+        <v>3.602105073217145</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>3.903194031539166</v>
+        <v>3.859570756546236</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>3.412439565881195</v>
+        <v>3.450633478241704</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>10.1288953102705</v>
+        <v>10.2531558393079</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>2.210487519790578</v>
+        <v>2.287788719087807</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2.67053292084722</v>
+        <v>2.766123760773307</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2.964174624020752</v>
+        <v>2.935894158104332</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>8.610018364240704</v>
+        <v>8.433254766105886</v>
       </c>
     </row>
     <row r="22">
